--- a/Excel & CSV Sheets/Day Holder 2018.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2018.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B304"/>
+  <dimension ref="A1:B306"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A265" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E305" activeCellId="0" sqref="E305"/>
+      <selection pane="topLeft" activeCell="C305" activeCellId="0" sqref="C305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2600,6 +2600,22 @@
         <v>43403</v>
       </c>
     </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="3" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" s="4" t="n">
+        <v>43404</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="3" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" s="4" t="n">
+        <v>43405</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2018.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2018.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B306"/>
+  <dimension ref="A1:B317"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A265" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C305" activeCellId="0" sqref="C305"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A271" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C315" activeCellId="0" sqref="C315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2616,6 +2616,94 @@
         <v>43405</v>
       </c>
     </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="3" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" s="4" t="n">
+        <v>43406</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="3" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" s="4" t="n">
+        <v>43407</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="3" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" s="4" t="n">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="3" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" s="4" t="n">
+        <v>43409</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="3" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" s="4" t="n">
+        <v>43410</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="3" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" s="4" t="n">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="3" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" s="4" t="n">
+        <v>43412</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="3" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" s="4" t="n">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="3" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" s="4" t="n">
+        <v>43414</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="3" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" s="4" t="n">
+        <v>43415</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="3" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" s="4" t="n">
+        <v>43416</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2018.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2018.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B317"/>
+  <dimension ref="A1:B319"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A271" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C315" activeCellId="0" sqref="C315"/>
+      <selection pane="topLeft" activeCell="D318" activeCellId="0" sqref="D318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2704,6 +2704,22 @@
         <v>43416</v>
       </c>
     </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="3" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" s="4" t="n">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="3" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" s="4" t="n">
+        <v>43418</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2018.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2018.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B319"/>
+  <dimension ref="A1:B328"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A271" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D318" activeCellId="0" sqref="D318"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A292" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C324" activeCellId="0" sqref="C324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2720,6 +2720,78 @@
         <v>43418</v>
       </c>
     </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="3" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" s="4" t="n">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="3" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" s="4" t="n">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="3" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" s="4" t="n">
+        <v>43421</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="3" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" s="4" t="n">
+        <v>43422</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="3" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" s="4" t="n">
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="3" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" s="4" t="n">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="3" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" s="4" t="n">
+        <v>43425</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="3" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" s="4" t="n">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="3" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" s="4" t="n">
+        <v>43427</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2018.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2018.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B328"/>
+  <dimension ref="A1:B335"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A292" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C324" activeCellId="0" sqref="C324"/>
+      <selection pane="topLeft" activeCell="C335" activeCellId="0" sqref="C335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2792,6 +2792,62 @@
         <v>43427</v>
       </c>
     </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="3" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" s="4" t="n">
+        <v>43428</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="3" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" s="4" t="n">
+        <v>43429</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="3" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" s="4" t="n">
+        <v>43430</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="3" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" s="4" t="n">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="3" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" s="4" t="n">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="3" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" s="4" t="n">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="3" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" s="4" t="n">
+        <v>43434</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2018.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2018.xlsx
@@ -155,13 +155,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B335"/>
+  <dimension ref="A1:B339"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A292" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C335" activeCellId="0" sqref="C335"/>
+      <selection pane="topLeft" activeCell="E326" activeCellId="0" sqref="E325:E326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.246963562753"/>
@@ -2846,6 +2846,38 @@
       </c>
       <c r="B335" s="4" t="n">
         <v>43434</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="3" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" s="4" t="n">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="3" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" s="4" t="n">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="3" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" s="4" t="n">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="3" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" s="4" t="n">
+        <v>43438</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/Day Holder 2018.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2018.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B339"/>
+  <dimension ref="A1:B340"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A292" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E326" activeCellId="0" sqref="E325:E326"/>
+      <selection pane="topLeft" activeCell="C337" activeCellId="0" sqref="C337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2880,6 +2880,14 @@
         <v>43438</v>
       </c>
     </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="3" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" s="4" t="n">
+        <v>43439</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2018.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2018.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B340"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A292" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C337" activeCellId="0" sqref="C337"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A298" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C343" activeCellId="0" sqref="C343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2888,6 +2888,30 @@
         <v>43439</v>
       </c>
     </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="3" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" s="4" t="n">
+        <v>43440</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="3" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" s="4" t="n">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="3" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" s="4" t="n">
+        <v>43442</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2018.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2018.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B343"/>
+  <dimension ref="A1:B344"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A298" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C343" activeCellId="0" sqref="C343"/>
+      <selection pane="topLeft" activeCell="D342" activeCellId="0" sqref="D342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2912,6 +2912,14 @@
         <v>43442</v>
       </c>
     </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="3" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" s="4" t="n">
+        <v>43443</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2018.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2018.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B344"/>
+  <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A298" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D342" activeCellId="0" sqref="D342"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A331" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A365" activeCellId="0" sqref="A365:A366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2920,6 +2920,182 @@
         <v>43443</v>
       </c>
     </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="3" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" s="4" t="n">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="3" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" s="4" t="n">
+        <v>43445</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="3" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" s="4" t="n">
+        <v>43446</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="3" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" s="4" t="n">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="3" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" s="4" t="n">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="3" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" s="4" t="n">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="3" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" s="4" t="n">
+        <v>43450</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="3" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" s="4" t="n">
+        <v>43451</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="3" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" s="4" t="n">
+        <v>43452</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="3" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" s="4" t="n">
+        <v>43453</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="3" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" s="4" t="n">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="3" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" s="4" t="n">
+        <v>43455</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="3" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" s="4" t="n">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="3" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" s="4" t="n">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="3" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" s="4" t="n">
+        <v>43458</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="3" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" s="4" t="n">
+        <v>43459</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="3" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" s="4" t="n">
+        <v>43460</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="3" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" s="4" t="n">
+        <v>43461</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="3" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" s="4" t="n">
+        <v>43462</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="3" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" s="4" t="n">
+        <v>43463</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="3" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" s="4" t="n">
+        <v>43464</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="3" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" s="4" t="n">
+        <v>43465</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
